--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ang</t>
+  </si>
+  <si>
+    <t>Plxnb2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ang</t>
-  </si>
-  <si>
-    <t>Plxnb2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.342539</v>
+        <v>18.75906433333333</v>
       </c>
       <c r="H2">
-        <v>7.027617</v>
+        <v>56.277193</v>
       </c>
       <c r="I2">
-        <v>0.05122661219710734</v>
+        <v>0.5361671447061924</v>
       </c>
       <c r="J2">
-        <v>0.05122661219710734</v>
+        <v>0.5361671447061924</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N2">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q2">
-        <v>24.34112207149233</v>
+        <v>217.8470381482235</v>
       </c>
       <c r="R2">
-        <v>219.070098643431</v>
+        <v>1960.623343334012</v>
       </c>
       <c r="S2">
-        <v>0.004277927463630488</v>
+        <v>0.05197090947286197</v>
       </c>
       <c r="T2">
-        <v>0.004277927463630487</v>
+        <v>0.05197090947286197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.342539</v>
+        <v>18.75906433333333</v>
       </c>
       <c r="H3">
-        <v>7.027617</v>
+        <v>56.277193</v>
       </c>
       <c r="I3">
-        <v>0.05122661219710734</v>
+        <v>0.5361671447061924</v>
       </c>
       <c r="J3">
-        <v>0.05122661219710734</v>
+        <v>0.5361671447061924</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q3">
-        <v>83.66523119748734</v>
+        <v>669.9916007788438</v>
       </c>
       <c r="R3">
-        <v>752.987080777386</v>
+        <v>6029.924407009594</v>
       </c>
       <c r="S3">
-        <v>0.01470407934521245</v>
+        <v>0.1598372561207994</v>
       </c>
       <c r="T3">
-        <v>0.01470407934521245</v>
+        <v>0.1598372561207994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.342539</v>
+        <v>18.75906433333333</v>
       </c>
       <c r="H4">
-        <v>7.027617</v>
+        <v>56.277193</v>
       </c>
       <c r="I4">
-        <v>0.05122661219710734</v>
+        <v>0.5361671447061924</v>
       </c>
       <c r="J4">
-        <v>0.05122661219710734</v>
+        <v>0.5361671447061924</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N4">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q4">
-        <v>61.961112305912</v>
+        <v>513.9861193173451</v>
       </c>
       <c r="R4">
-        <v>557.650010753208</v>
+        <v>4625.875073856106</v>
       </c>
       <c r="S4">
-        <v>0.01088960251018958</v>
+        <v>0.122619643142333</v>
       </c>
       <c r="T4">
-        <v>0.01088960251018958</v>
+        <v>0.122619643142333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.342539</v>
+        <v>18.75906433333333</v>
       </c>
       <c r="H5">
-        <v>7.027617</v>
+        <v>56.277193</v>
       </c>
       <c r="I5">
-        <v>0.05122661219710734</v>
+        <v>0.5361671447061924</v>
       </c>
       <c r="J5">
-        <v>0.05122661219710734</v>
+        <v>0.5361671447061924</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N5">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O5">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P5">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q5">
-        <v>121.508542702394</v>
+        <v>845.6330140238515</v>
       </c>
       <c r="R5">
-        <v>1093.576884321546</v>
+        <v>7610.697126214664</v>
       </c>
       <c r="S5">
-        <v>0.02135500287807481</v>
+        <v>0.201739335970198</v>
       </c>
       <c r="T5">
-        <v>0.02135500287807482</v>
+        <v>0.201739335970198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.75906433333333</v>
+        <v>1.977222333333333</v>
       </c>
       <c r="H6">
-        <v>56.277193</v>
+        <v>5.931667</v>
       </c>
       <c r="I6">
-        <v>0.4102229733567956</v>
+        <v>0.05651250158724062</v>
       </c>
       <c r="J6">
-        <v>0.4102229733567955</v>
+        <v>0.05651250158724062</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N6">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q6">
-        <v>194.9238304611554</v>
+        <v>22.96127468958089</v>
       </c>
       <c r="R6">
-        <v>1754.314474150399</v>
+        <v>206.651472206228</v>
       </c>
       <c r="S6">
-        <v>0.03425766508202331</v>
+        <v>0.005477780824643525</v>
       </c>
       <c r="T6">
-        <v>0.03425766508202331</v>
+        <v>0.005477780824643524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.75906433333333</v>
+        <v>1.977222333333333</v>
       </c>
       <c r="H7">
-        <v>56.277193</v>
+        <v>5.931667</v>
       </c>
       <c r="I7">
-        <v>0.4102229733567956</v>
+        <v>0.05651250158724062</v>
       </c>
       <c r="J7">
-        <v>0.4102229733567955</v>
+        <v>0.05651250158724062</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q7">
-        <v>669.9916007788438</v>
+        <v>70.61772019469845</v>
       </c>
       <c r="R7">
-        <v>6029.924407009594</v>
+        <v>635.559481752286</v>
       </c>
       <c r="S7">
-        <v>0.1177503428541759</v>
+        <v>0.01684699124034659</v>
       </c>
       <c r="T7">
-        <v>0.1177503428541759</v>
+        <v>0.01684699124034659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.75906433333333</v>
+        <v>1.977222333333333</v>
       </c>
       <c r="H8">
-        <v>56.277193</v>
+        <v>5.931667</v>
       </c>
       <c r="I8">
-        <v>0.4102229733567956</v>
+        <v>0.05651250158724062</v>
       </c>
       <c r="J8">
-        <v>0.4102229733567955</v>
+        <v>0.05651250158724062</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N8">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q8">
-        <v>496.1849053149146</v>
+        <v>54.17460146622378</v>
       </c>
       <c r="R8">
-        <v>4465.664147834232</v>
+        <v>487.571413196014</v>
       </c>
       <c r="S8">
-        <v>0.08720399278435684</v>
+        <v>0.01292422119879279</v>
       </c>
       <c r="T8">
-        <v>0.08720399278435685</v>
+        <v>0.01292422119879279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.75906433333333</v>
+        <v>1.977222333333333</v>
       </c>
       <c r="H9">
-        <v>56.277193</v>
+        <v>5.931667</v>
       </c>
       <c r="I9">
-        <v>0.4102229733567956</v>
+        <v>0.05651250158724062</v>
       </c>
       <c r="J9">
-        <v>0.4102229733567955</v>
+        <v>0.05651250158724062</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N9">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O9">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P9">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q9">
-        <v>973.0410335126925</v>
+        <v>89.13048387818166</v>
       </c>
       <c r="R9">
-        <v>8757.369301614233</v>
+        <v>802.174354903635</v>
       </c>
       <c r="S9">
-        <v>0.1710109726362395</v>
+        <v>0.02126350832345772</v>
       </c>
       <c r="T9">
-        <v>0.1710109726362395</v>
+        <v>0.02126350832345772</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,14 +1018,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.201032</v>
+        <v>14.25105733333333</v>
       </c>
       <c r="H10">
-        <v>6.603096</v>
+        <v>42.75317199999999</v>
       </c>
       <c r="I10">
-        <v>0.04813213897289376</v>
+        <v>0.4073203537065669</v>
       </c>
       <c r="J10">
-        <v>0.04813213897289375</v>
+        <v>0.4073203537065669</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N10">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q10">
-        <v>22.87073495692533</v>
+        <v>165.4960277006275</v>
       </c>
       <c r="R10">
-        <v>205.836614612328</v>
+        <v>1489.464249305648</v>
       </c>
       <c r="S10">
-        <v>0.004019508422753918</v>
+        <v>0.03948173519759056</v>
       </c>
       <c r="T10">
-        <v>0.004019508422753918</v>
+        <v>0.03948173519759056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.201032</v>
+        <v>14.25105733333333</v>
       </c>
       <c r="H11">
-        <v>6.603096</v>
+        <v>42.75317199999999</v>
       </c>
       <c r="I11">
-        <v>0.04813213897289376</v>
+        <v>0.4073203537065669</v>
       </c>
       <c r="J11">
-        <v>0.04813213897289375</v>
+        <v>0.4073203537065669</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>107.146858</v>
       </c>
       <c r="O11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q11">
-        <v>78.61122105248535</v>
+        <v>508.9853388148417</v>
       </c>
       <c r="R11">
-        <v>707.500989472368</v>
+        <v>4580.868049333576</v>
       </c>
       <c r="S11">
-        <v>0.01381584219914873</v>
+        <v>0.1214266266432406</v>
       </c>
       <c r="T11">
-        <v>0.01381584219914873</v>
+        <v>0.1214266266432405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.201032</v>
+        <v>14.25105733333333</v>
       </c>
       <c r="H12">
-        <v>6.603096</v>
+        <v>42.75317199999999</v>
       </c>
       <c r="I12">
-        <v>0.04813213897289376</v>
+        <v>0.4073203537065669</v>
       </c>
       <c r="J12">
-        <v>0.04813213897289375</v>
+        <v>0.4073203537065669</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N12">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q12">
-        <v>58.218194421056</v>
+        <v>390.469669743247</v>
       </c>
       <c r="R12">
-        <v>523.963749789504</v>
+        <v>3514.227027689223</v>
       </c>
       <c r="S12">
-        <v>0.01023178849624599</v>
+        <v>0.09315281047942074</v>
       </c>
       <c r="T12">
-        <v>0.010231788496246</v>
+        <v>0.09315281047942073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.201032</v>
+        <v>14.25105733333333</v>
       </c>
       <c r="H13">
-        <v>6.603096</v>
+        <v>42.75317199999999</v>
       </c>
       <c r="I13">
-        <v>0.04813213897289376</v>
+        <v>0.4073203537065669</v>
       </c>
       <c r="J13">
-        <v>0.04813213897289375</v>
+        <v>0.4073203537065669</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N13">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O13">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P13">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q13">
-        <v>114.168511500272</v>
+        <v>642.4182118934065</v>
       </c>
       <c r="R13">
-        <v>1027.516603502448</v>
+        <v>5781.763907040659</v>
       </c>
       <c r="S13">
-        <v>0.02006499985474511</v>
+        <v>0.1532591813863151</v>
       </c>
       <c r="T13">
-        <v>0.02006499985474511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>22.426311</v>
-      </c>
-      <c r="H14">
-        <v>67.27893299999999</v>
-      </c>
-      <c r="I14">
-        <v>0.4904182754732034</v>
-      </c>
-      <c r="J14">
-        <v>0.4904182754732034</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>10.39091433333333</v>
-      </c>
-      <c r="N14">
-        <v>31.172743</v>
-      </c>
-      <c r="O14">
-        <v>0.0835098648954196</v>
-      </c>
-      <c r="P14">
-        <v>0.0835098648954196</v>
-      </c>
-      <c r="Q14">
-        <v>233.029876413691</v>
-      </c>
-      <c r="R14">
-        <v>2097.268887723219</v>
-      </c>
-      <c r="S14">
-        <v>0.04095476392701189</v>
-      </c>
-      <c r="T14">
-        <v>0.04095476392701189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>22.426311</v>
-      </c>
-      <c r="H15">
-        <v>67.27893299999999</v>
-      </c>
-      <c r="I15">
-        <v>0.4904182754732034</v>
-      </c>
-      <c r="J15">
-        <v>0.4904182754732034</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>35.71561933333334</v>
-      </c>
-      <c r="N15">
-        <v>107.146858</v>
-      </c>
-      <c r="O15">
-        <v>0.287039855156433</v>
-      </c>
-      <c r="P15">
-        <v>0.287039855156433</v>
-      </c>
-      <c r="Q15">
-        <v>800.969586726946</v>
-      </c>
-      <c r="R15">
-        <v>7208.726280542514</v>
-      </c>
-      <c r="S15">
-        <v>0.140769590757896</v>
-      </c>
-      <c r="T15">
-        <v>0.1407695907578959</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>22.426311</v>
-      </c>
-      <c r="H16">
-        <v>67.27893299999999</v>
-      </c>
-      <c r="I16">
-        <v>0.4904182754732034</v>
-      </c>
-      <c r="J16">
-        <v>0.4904182754732034</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>26.450408</v>
-      </c>
-      <c r="N16">
-        <v>79.351224</v>
-      </c>
-      <c r="O16">
-        <v>0.2125770579613792</v>
-      </c>
-      <c r="P16">
-        <v>0.2125770579613792</v>
-      </c>
-      <c r="Q16">
-        <v>593.185075884888</v>
-      </c>
-      <c r="R16">
-        <v>5338.665682963991</v>
-      </c>
-      <c r="S16">
-        <v>0.1042516741705868</v>
-      </c>
-      <c r="T16">
-        <v>0.1042516741705868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>22.426311</v>
-      </c>
-      <c r="H17">
-        <v>67.27893299999999</v>
-      </c>
-      <c r="I17">
-        <v>0.4904182754732034</v>
-      </c>
-      <c r="J17">
-        <v>0.4904182754732034</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>51.87044599999999</v>
-      </c>
-      <c r="N17">
-        <v>155.611338</v>
-      </c>
-      <c r="O17">
-        <v>0.4168732219867681</v>
-      </c>
-      <c r="P17">
-        <v>0.4168732219867682</v>
-      </c>
-      <c r="Q17">
-        <v>1163.262753704706</v>
-      </c>
-      <c r="R17">
-        <v>10469.36478334235</v>
-      </c>
-      <c r="S17">
-        <v>0.2044422466177087</v>
-      </c>
-      <c r="T17">
-        <v>0.2044422466177088</v>
+        <v>0.1532591813863151</v>
       </c>
     </row>
   </sheetData>
